--- a/participants/participant_23/participant_23_task_orders.xlsx
+++ b/participants/participant_23/participant_23_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1649873076677861" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16498730794052005" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16498730794061995" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-1649873079454201" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1649873079517235" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16502911953442924" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16502911979552925" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16502911979583113" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16502911980362954" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16502911981112912" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16498730766338618.csv</t>
+          <t>go_stims-16502911952932935.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1649873076659862.csv</t>
+          <t>GNG_stims-16502911953112948.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1649873076660861.csv</t>
+          <t>go_stims-1650291195314294.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16498730766768715.csv</t>
+          <t>GNG_stims-16502911953422925.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_2-16498730772470765.csv</t>
+          <t>ZB-match_4-1650291195438295.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16498730774061058.csv</t>
+          <t>TB-16502911973922935.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16498730792651994.csv</t>
+          <t>OB-16502911960902977.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_3-16498730771790707.csv</t>
+          <t>ZB-match_6-16502911955322938.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_1-16498730769638925.csv</t>
+          <t>OB-1650291195568293.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-1649873077533103.csv</t>
+          <t>ZB-match_1-16502911954552908.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16498730774990685.csv</t>
+          <t>TB-1650291197794293.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16498730793862336.csv</t>
+          <t>OB-16502911959142945.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16498730790571983.csv</t>
+          <t>TB-16502911979323013.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-1649873079421234.csv</t>
+          <t>MM_stims-16502911979863157.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730794082007.csv</t>
+          <t>ZM_stims-16502911979612958.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16498730794372342.csv</t>
+          <t>MM_stims-16502911980172942.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730794221995.csv</t>
+          <t>ZM_stims-16502911979872973.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16498730794532018.csv</t>
+          <t>MM_stims-16502911980343003.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730794381993.csv</t>
+          <t>ZM_stims-16502911980182931.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498730795022273.csv</t>
+          <t>vSAT_stims-16502911980952954.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498730794852352.csv</t>
+          <t>SAT_stims-16502911980652945.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-1649873079457224.csv</t>
+          <t>vSAT_stims-16502911980812948.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16498730794692397.csv</t>
+          <t>SAT_stims-16502911980402954.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_23/participant_23_task_orders.xlsx
+++ b/participants/participant_23/participant_23_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16502911953442924" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16502911979552925" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16502911979583113" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16502911980362954" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16502911981112912" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16504778309508793" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16504778325629091" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16504778325638773" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16504778326278872" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1650477832690912" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16502911952932935.csv</t>
+          <t>go_stims-16504778309198797.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16502911953112948.csv</t>
+          <t>GNG_stims-16504778309339118.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1650291195314294.csv</t>
+          <t>go_stims-16504778309348788.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16502911953422925.csv</t>
+          <t>GNG_stims-16504778309499109.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_4-1650291195438295.csv</t>
+          <t>TB-16504778325398753.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16502911973922935.csv</t>
+          <t>ZB-match_9-16504778313088818.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16502911960902977.csv</t>
+          <t>TB-1650477832430879.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_6-16502911955322938.csv</t>
+          <t>OB-16504778313888755.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-1650291195568293.csv</t>
+          <t>OB-16504778315388782.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_1-16502911954552908.csv</t>
+          <t>ZB-match_1-16504778309768796.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-1650291197794293.csv</t>
+          <t>OB-1650477832011881.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16502911959142945.csv</t>
+          <t>ZB-match_4-1650477831252879.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16502911979323013.csv</t>
+          <t>TB-16504778324558785.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16502911979863157.csv</t>
+          <t>MM_stims-1650477832594912.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16502911979612958.csv</t>
+          <t>ZM_stims-16504778325698786.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16502911980172942.csv</t>
+          <t>MM_stims-16504778326109114.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16502911979872973.csv</t>
+          <t>ZM_stims-1650477832594912.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16502911980343003.csv</t>
+          <t>MM_stims-16504778326268766.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16502911980182931.csv</t>
+          <t>ZM_stims-16504778326109114.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502911980952954.csv</t>
+          <t>vSAT_stims-16504778326589108.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16502911980652945.csv</t>
+          <t>vSAT_stims-16504778326749113.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502911980812948.csv</t>
+          <t>SAT_stims-16504778326429107.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16502911980402954.csv</t>
+          <t>SAT_stims-16504778326308813.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_23/participant_23_task_orders.xlsx
+++ b/participants/participant_23/participant_23_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16504778309508793" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16504778325629091" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16504778325638773" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16504778326278872" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1650477832690912" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16509961211945608" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16509961225305672" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16509961225305672" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16509961225945983" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16509961226585956" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16504778309198797.csv</t>
+          <t>go_stims-16509961211545763.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778309339118.csv</t>
+          <t>GNG_stims-16509961211786077.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16504778309348788.csv</t>
+          <t>go_stims-16509961211786077.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778309499109.csv</t>
+          <t>GNG_stims-16509961211945608.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16504778325398753.csv</t>
+          <t>TB-1650996122434561.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_9-16504778313088818.csv</t>
+          <t>OB-16509961220185628.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-1650477832430879.csv</t>
+          <t>ZB-match_3-16509961212905655.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16504778313888755.csv</t>
+          <t>TB-16509961221145825.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16504778315388782.csv</t>
+          <t>OB-1650996122002567.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_1-16504778309768796.csv</t>
+          <t>TB-16509961224985604.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-1650477832011881.csv</t>
+          <t>ZB-match_4-16509961217466078.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_4-1650477831252879.csv</t>
+          <t>OB-16509961218505616.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16504778324558785.csv</t>
+          <t>ZB-match_4-16509961213545692.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-1650477832594912.csv</t>
+          <t>MM_stims-16509961225626192.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778325698786.csv</t>
+          <t>ZM_stims-16509961225385664.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16504778326109114.csv</t>
+          <t>MM_stims-16509961225785637.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-1650477832594912.csv</t>
+          <t>ZM_stims-16509961225626192.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16504778326268766.csv</t>
+          <t>MM_stims-16509961225945983.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778326109114.csv</t>
+          <t>ZM_stims-16509961225785637.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778326589108.csv</t>
+          <t>SAT_stims-16509961225945983.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778326749113.csv</t>
+          <t>SAT_stims-16509961226105957.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16504778326429107.csv</t>
+          <t>vSAT_stims-16509961226265619.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16504778326308813.csv</t>
+          <t>vSAT_stims-16509961226426032.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_23/participant_23_task_orders.xlsx
+++ b/participants/participant_23/participant_23_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16509961211945608" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16509961225305672" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16509961225305672" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16509961225945983" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16509961226585956" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16511687196671057" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16511687216399515" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16511687216399515" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16511687216897433" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16511687217640152" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16509961211545763.csv</t>
+          <t>go_stims-165116871962549.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16509961211786077.csv</t>
+          <t>GNG_stims-16511687196505418.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16509961211786077.csv</t>
+          <t>go_stims-1651168719652511.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16509961211945608.csv</t>
+          <t>GNG_stims-16511687196661496.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-1650996122434561.csv</t>
+          <t>ZB-match_5-16511687198194792.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16509961220185628.csv</t>
+          <t>TB-16511687216155665.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_3-16509961212905655.csv</t>
+          <t>TB-16511687215404232.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16509961221145825.csv</t>
+          <t>ZB-match_7-16511687199775472.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-1650996122002567.csv</t>
+          <t>OB-1651168720622113.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16509961224985604.csv</t>
+          <t>OB-16511687203168182.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_4-16509961217466078.csv</t>
+          <t>TB-16511687211123629.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16509961218505616.csv</t>
+          <t>OB-1651168721008185.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_4-16509961213545692.csv</t>
+          <t>ZB-match_6-1651168719724679.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16509961225626192.csv</t>
+          <t>MM_stims-16511687216566465.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961225385664.csv</t>
+          <t>ZM_stims-16511687216436362.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16509961225785637.csv</t>
+          <t>MM_stims-1651168721672621.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961225626192.csv</t>
+          <t>ZM_stims-16511687216576395.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16509961225945983.csv</t>
+          <t>MM_stims-16511687216886759.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961225785637.csv</t>
+          <t>ZM_stims-16511687216736214.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16509961225945983.csv</t>
+          <t>vSAT_stims-16511687217481122.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16509961226105957.csv</t>
+          <t>SAT_stims-16511687217173064.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509961226265619.csv</t>
+          <t>SAT_stims-1651168721698301.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509961226426032.csv</t>
+          <t>vSAT_stims-1651168721733875.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_23/participant_23_task_orders.xlsx
+++ b/participants/participant_23/participant_23_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16511687196671057" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16511687216399515" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16511687216399515" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16511687216897433" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16511687217640152" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16512555442331362" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16512555465662801" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16512555465722828" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16512555466312845" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16512555467092834" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-165116871962549.csv</t>
+          <t>go_stims-16512555442001367.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16511687196505418.csv</t>
+          <t>GNG_stims-1651255544215136.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1651168719652511.csv</t>
+          <t>go_stims-16512555442171378.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16511687196661496.csv</t>
+          <t>GNG_stims-16512555442321372.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_5-16511687198194792.csv</t>
+          <t>OB-16512555450671253.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16511687216155665.csv</t>
+          <t>OB-16512555450381255.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16511687215404232.csv</t>
+          <t>ZB-match_2-16512555444861372.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_7-16511687199775472.csv</t>
+          <t>ZB-match_1-16512555443201363.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-1651168720622113.csv</t>
+          <t>TB-1651255546548289.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16511687203168182.csv</t>
+          <t>TB-1651255546296281.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16511687211123629.csv</t>
+          <t>OB-1651255544752129.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-1651168721008185.csv</t>
+          <t>ZB-match_8-16512555443991375.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_6-1651168719724679.csv</t>
+          <t>TB-16512555455212822.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16511687216566465.csv</t>
+          <t>MM_stims-1651255546598283.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687216436362.csv</t>
+          <t>ZM_stims-1651255546575288.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-1651168721672621.csv</t>
+          <t>MM_stims-16512555466142814.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687216576395.csv</t>
+          <t>ZM_stims-16512555465993447.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16511687216886759.csv</t>
+          <t>MM_stims-16512555466302814.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687216736214.csv</t>
+          <t>ZM_stims-16512555466152825.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511687217481122.csv</t>
+          <t>SAT_stims-16512555466362832.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16511687217173064.csv</t>
+          <t>vSAT_stims-16512555466942828.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-1651168721698301.csv</t>
+          <t>vSAT_stims-16512555466772816.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-1651168721733875.csv</t>
+          <t>SAT_stims-16512555466612833.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_23/participant_23_task_orders.xlsx
+++ b/participants/participant_23/participant_23_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16512555442331362" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16512555465662801" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16512555465722828" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16512555466312845" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16512555467092834" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="vSAT_TO-1651588976680924" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="TOL_TO-1651588976727799" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="NB_TO-1651588978221365" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="GNG_TO-16515889782608345" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="RS_TO-16515889782608345" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16512555442001367.csv</t>
+          <t>SAT_stims-16515889766340487.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1651255544215136.csv</t>
+          <t>vSAT_stims-16515889766652992.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16512555442171378.csv</t>
+          <t>SAT_stims-16515889766184244.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16512555442321372.csv</t>
+          <t>vSAT_stims-16515889766496737.csv</t>
         </is>
       </c>
     </row>
@@ -490,6 +490,92 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>task_order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MM_stims-16515889766966326.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ZM_stims-1651588976680924.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MM_stims-1651588976712181.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ZM_stims-16515889766966326.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MM_stims-1651588976727799.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ZM_stims-1651588976712181.csv</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -516,7 +602,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16512555450671253.csv</t>
+          <t>TB-16515889774343798.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +612,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16512555450381255.csv</t>
+          <t>ZB-match_3-1651588977078328.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +622,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_2-16512555444861372.csv</t>
+          <t>TB-16515889782057402.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +632,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_1-16512555443201363.csv</t>
+          <t>TB-1651588977872623.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-1651255546548289.csv</t>
+          <t>OB-16515889771899147.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +652,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-1651255546296281.csv</t>
+          <t>ZB-match_4-1651588976871081.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +662,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-1651255544752129.csv</t>
+          <t>OB-16515889773049033.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +672,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_8-16512555443991375.csv</t>
+          <t>OB-16515889770939543.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +682,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16512555455212822.csv</t>
+          <t>ZB-match_0-16515889769510245.csv</t>
         </is>
       </c>
     </row>
@@ -605,7 +691,73 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>task_order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>go_stims-1651588978221365.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>GNG_stims-16515889782360344.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>go_stims-16515889782370374.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>GNG_stims-16515889782608345.csv</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -649,156 +801,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>task_order</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>MM_stims-1651255546598283.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ZM_stims-1651255546575288.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MM_stims-16512555466142814.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512555465993447.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MM_stims-16512555466302814.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512555466152825.csv</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>task_order</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>SAT_stims-16512555466362832.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>vSAT_stims-16512555466942828.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>vSAT_stims-16512555466772816.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>SAT_stims-16512555466612833.csv</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>